--- a/Project/API_Docs.xlsx
+++ b/Project/API_Docs.xlsx
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D14CCE1-5FD0-A143-A5B4-0A7248D4C4D0}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
